--- a/data/trans_orig/P6605-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>132083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113632</v>
+        <v>114933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150746</v>
+        <v>151870</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3715323210581653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3196320152402238</v>
+        <v>0.3232905425554657</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4240262737874714</v>
+        <v>0.427188459428407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -765,19 +765,19 @@
         <v>84474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70705</v>
+        <v>70123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98875</v>
+        <v>99775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3911524427362768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3273940936540594</v>
+        <v>0.3247002268629248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4578319527519451</v>
+        <v>0.4619991403500407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -786,19 +786,19 @@
         <v>216558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>193900</v>
+        <v>193927</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241249</v>
+        <v>240979</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3789468713263511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3392986875990034</v>
+        <v>0.3393460727923573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4221528191170521</v>
+        <v>0.4216809396087872</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>99556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83299</v>
+        <v>83652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118527</v>
+        <v>116518</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2800361907766915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2343093535032922</v>
+        <v>0.2353024278156502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3334008359973439</v>
+        <v>0.3277485689050872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -836,19 +836,19 @@
         <v>65631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52017</v>
+        <v>52687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78688</v>
+        <v>81108</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3038982947336396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2408597118384482</v>
+        <v>0.243961892481408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3643593039558667</v>
+        <v>0.3755641659755337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -857,19 +857,19 @@
         <v>165186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142983</v>
+        <v>145490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188096</v>
+        <v>187867</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2890538091276953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2502012260899151</v>
+        <v>0.2545874574405699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3291430973755163</v>
+        <v>0.3287421850637288</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>77808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62632</v>
+        <v>62593</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94331</v>
+        <v>94023</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.218863990774175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.176175546259897</v>
+        <v>0.1760649686287309</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2653402597752867</v>
+        <v>0.2644722144521058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -907,19 +907,19 @@
         <v>46487</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35180</v>
+        <v>34883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59556</v>
+        <v>59820</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2152537665959934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1629002612473723</v>
+        <v>0.1615249630036935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.275768433962602</v>
+        <v>0.2769910852691743</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -928,19 +928,19 @@
         <v>124295</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>105438</v>
+        <v>104359</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>144434</v>
+        <v>144708</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2174996674999513</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1845019314361316</v>
+        <v>0.1826145970389077</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2527403951245638</v>
+        <v>0.2532192137980337</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>46063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34102</v>
+        <v>35005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60256</v>
+        <v>60310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1295674973909683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09592508791892113</v>
+        <v>0.09846503194029835</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1694919865796472</v>
+        <v>0.1696442951186667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -978,19 +978,19 @@
         <v>19371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11976</v>
+        <v>11962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28507</v>
+        <v>29297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08969549593409025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0554537138883964</v>
+        <v>0.05538867196924786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1320005181818316</v>
+        <v>0.1356583546550184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -999,19 +999,19 @@
         <v>65433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50778</v>
+        <v>50212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82513</v>
+        <v>81267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1144996520460022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08885453872493383</v>
+        <v>0.08786483009364021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1443869519235419</v>
+        <v>0.1422059453854919</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>104597</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89326</v>
+        <v>88483</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122670</v>
+        <v>121587</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3888451676484556</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3320736873154659</v>
+        <v>0.32894064816742</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4560293215684651</v>
+        <v>0.4520041778375164</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -1124,19 +1124,19 @@
         <v>76353</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62859</v>
+        <v>62600</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>90673</v>
+        <v>89922</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3306398496183007</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.272205516365896</v>
+        <v>0.271084323432247</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3926510467988205</v>
+        <v>0.389401397632253</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -1145,19 +1145,19 @@
         <v>180950</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158793</v>
+        <v>158328</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>201587</v>
+        <v>202942</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3619588017072644</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3176375541058051</v>
+        <v>0.3167071249332666</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4032378013827175</v>
+        <v>0.4059486483177757</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>74231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60048</v>
+        <v>58330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90957</v>
+        <v>88951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2759580435439422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.223230703688945</v>
+        <v>0.216842567475218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3381346235621505</v>
+        <v>0.3306789468121251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1195,19 +1195,19 @@
         <v>56487</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44360</v>
+        <v>43536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70900</v>
+        <v>70611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2446146597008196</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1920959634738689</v>
+        <v>0.1885291655888229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3070290582544585</v>
+        <v>0.3057740056594563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -1216,19 +1216,19 @@
         <v>130719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111861</v>
+        <v>110163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150689</v>
+        <v>150509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2614798185919743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2237585734550653</v>
+        <v>0.2203605809696842</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3014258690346697</v>
+        <v>0.3010663536953019</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>64237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50514</v>
+        <v>51555</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78929</v>
+        <v>79581</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2388024148679016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1877878883143852</v>
+        <v>0.1916589773210733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2934222937187772</v>
+        <v>0.2958448165617146</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -1266,19 +1266,19 @@
         <v>60407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46190</v>
+        <v>47805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74044</v>
+        <v>73174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.261588279679844</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.200020366622485</v>
+        <v>0.2070143964328123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3206406680228167</v>
+        <v>0.3168738033180538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -1287,19 +1287,19 @@
         <v>124644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>107994</v>
+        <v>105921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>145619</v>
+        <v>144503</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2493277263059906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2160229058964154</v>
+        <v>0.2118750905144965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.291284928715284</v>
+        <v>0.2890519599864212</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>25930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17034</v>
+        <v>17621</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36860</v>
+        <v>37848</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09639437393970074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06332539502839669</v>
+        <v>0.06550768101228166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1370283386747052</v>
+        <v>0.140702887336098</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -1337,19 +1337,19 @@
         <v>37677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26009</v>
+        <v>27530</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50134</v>
+        <v>50360</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1631572110010357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1126290995319171</v>
+        <v>0.1192182943284199</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2171035407904265</v>
+        <v>0.218078428818831</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -1358,19 +1358,19 @@
         <v>63607</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49713</v>
+        <v>49358</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79901</v>
+        <v>78858</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1272336533947708</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09944252477308356</v>
+        <v>0.09873273899284281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1598272400425735</v>
+        <v>0.1577417180960634</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>99765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83582</v>
+        <v>82320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116917</v>
+        <v>117482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.261904456947722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2194224459156099</v>
+        <v>0.216107091924288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3069320299055194</v>
+        <v>0.308417645206795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1483,19 +1483,19 @@
         <v>12658</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6976</v>
+        <v>7453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19035</v>
+        <v>19698</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2227919371345986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.122777070764985</v>
+        <v>0.1311795494876338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3350202439043693</v>
+        <v>0.3467042597847891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -1504,19 +1504,19 @@
         <v>112423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94685</v>
+        <v>94809</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131252</v>
+        <v>131795</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2568278498784412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.216305468560239</v>
+        <v>0.2165891616484514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2998425944238904</v>
+        <v>0.3010830017259223</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>89633</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>74077</v>
+        <v>73610</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>106801</v>
+        <v>108076</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2353073844905681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1944689785115397</v>
+        <v>0.1932427558158217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2803768793666343</v>
+        <v>0.2837237025070906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -1554,19 +1554,19 @@
         <v>19632</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13267</v>
+        <v>12943</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27785</v>
+        <v>27779</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3455343430220303</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2335092522289947</v>
+        <v>0.2277984294007288</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4890388762415944</v>
+        <v>0.4889234658160966</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>104</v>
@@ -1575,19 +1575,19 @@
         <v>109265</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>91698</v>
+        <v>90989</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>127336</v>
+        <v>129000</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2496142856971323</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2094829074502788</v>
+        <v>0.2078618233754924</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2908971321089627</v>
+        <v>0.2946981171521296</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>94580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76888</v>
+        <v>79435</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110768</v>
+        <v>112077</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2482925000150633</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2018484668541946</v>
+        <v>0.2085335907338782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2907915203814418</v>
+        <v>0.2942268761062313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1625,19 +1625,19 @@
         <v>13844</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7801</v>
+        <v>7832</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21939</v>
+        <v>21000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2436702602478677</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1373060825502115</v>
+        <v>0.1378420034492405</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.386141465019705</v>
+        <v>0.369614030052039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1646,19 +1646,19 @@
         <v>108424</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91786</v>
+        <v>92683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127506</v>
+        <v>130036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2476925566928183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2096823561957319</v>
+        <v>0.2117335947499465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2912847752447557</v>
+        <v>0.2970658502265147</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>96942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80153</v>
+        <v>79200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113894</v>
+        <v>115086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2544956585466467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2104199255200315</v>
+        <v>0.2079181760831513</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2989972962003239</v>
+        <v>0.3021261527211122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1696,19 +1696,19 @@
         <v>10682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5869</v>
+        <v>5899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16775</v>
+        <v>17584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1880034595955033</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1032962630215379</v>
+        <v>0.1038335647033976</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2952543618904182</v>
+        <v>0.3094829187998011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -1717,19 +1717,19 @@
         <v>107624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>89248</v>
+        <v>90596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125927</v>
+        <v>125465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2458653077316082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2038863710823169</v>
+        <v>0.2069651246025885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2876779388240556</v>
+        <v>0.2866224467927093</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>147319</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>127275</v>
+        <v>126014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170108</v>
+        <v>171111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2095975784924307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1810801683908593</v>
+        <v>0.1792862753135092</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2420215115518435</v>
+        <v>0.243447528592453</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -1842,19 +1842,19 @@
         <v>93927</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77329</v>
+        <v>78324</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110713</v>
+        <v>112076</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3082782526999235</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2538009369613894</v>
+        <v>0.2570679112924175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.363373775212825</v>
+        <v>0.3678461877719105</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -1863,19 +1863,19 @@
         <v>241245</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213464</v>
+        <v>214942</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>267349</v>
+        <v>270470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2394385722049143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2118648502154247</v>
+        <v>0.213332593480283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2653466427089468</v>
+        <v>0.2684439105691843</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>140307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120272</v>
+        <v>119451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165161</v>
+        <v>162078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1996221430123436</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.171116546300696</v>
+        <v>0.1699484487216823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2349819096889807</v>
+        <v>0.2305962262704959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -1913,19 +1913,19 @@
         <v>71183</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57989</v>
+        <v>57324</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88285</v>
+        <v>87742</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2336306203026533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1903259645515681</v>
+        <v>0.1881449012363894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2897602788781413</v>
+        <v>0.2879794814741826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>200</v>
@@ -1934,19 +1934,19 @@
         <v>211490</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>186077</v>
+        <v>186712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>238686</v>
+        <v>239417</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.209906292012556</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1846835539347962</v>
+        <v>0.1853132841468818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2368988336841274</v>
+        <v>0.2376242079362988</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>210767</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>187421</v>
+        <v>186449</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>236105</v>
+        <v>235858</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.299868724702713</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2666524367602625</v>
+        <v>0.2652696561114519</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3359181967995814</v>
+        <v>0.3355665546488345</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -1984,19 +1984,19 @@
         <v>88965</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72973</v>
+        <v>73646</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>106333</v>
+        <v>106072</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2919934756221368</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.239506403007261</v>
+        <v>0.2417134982593332</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3489978196394729</v>
+        <v>0.3481405383747795</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>289</v>
@@ -2005,19 +2005,19 @@
         <v>299732</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>272538</v>
+        <v>272707</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>330254</v>
+        <v>329298</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2974872527459692</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2704969999820239</v>
+        <v>0.2706646445214842</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3277801265641739</v>
+        <v>0.3268321647840137</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>204472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182233</v>
+        <v>179954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230013</v>
+        <v>227423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2909115537925126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2592711596321483</v>
+        <v>0.2560286553882865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3272508180013817</v>
+        <v>0.3235655350515222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2055,19 +2055,19 @@
         <v>50607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39277</v>
+        <v>38432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64992</v>
+        <v>63997</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1660976513752863</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1289119884937948</v>
+        <v>0.1261388164122778</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2133112755003302</v>
+        <v>0.210046406073421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>245</v>
@@ -2076,19 +2076,19 @@
         <v>255078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>229884</v>
+        <v>229712</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>285952</v>
+        <v>285224</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2531678830365605</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2281622862155846</v>
+        <v>0.2279916696705465</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2838101461551585</v>
+        <v>0.283087689106491</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>30069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20028</v>
+        <v>21211</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41089</v>
+        <v>42750</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1624719963338932</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1082170300754744</v>
+        <v>0.1146109890419472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.222017966683384</v>
+        <v>0.230996476178554</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -2201,19 +2201,19 @@
         <v>46558</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35016</v>
+        <v>34065</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>60620</v>
+        <v>59652</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2203068577303514</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1656889164630998</v>
+        <v>0.1611884339181967</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2868466351434522</v>
+        <v>0.282263010062768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>72</v>
@@ -2222,19 +2222,19 @@
         <v>76627</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61821</v>
+        <v>61855</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>95009</v>
+        <v>94716</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1933054856649717</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1559547009273892</v>
+        <v>0.156041011603862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2396778503052614</v>
+        <v>0.2389394671871579</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>32307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22963</v>
+        <v>23574</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43431</v>
+        <v>44262</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1745650494961416</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1240764068687126</v>
+        <v>0.1273814220257013</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.234673368739492</v>
+        <v>0.2391642890298865</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2272,19 +2272,19 @@
         <v>33011</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23882</v>
+        <v>23839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45358</v>
+        <v>45446</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.156205264564367</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1130059459550164</v>
+        <v>0.1128002364476457</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2146294412628394</v>
+        <v>0.2150422890254747</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -2293,19 +2293,19 @@
         <v>65318</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51688</v>
+        <v>52352</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83609</v>
+        <v>81714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1647769006332235</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1303922546133881</v>
+        <v>0.1320679617510414</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2109201776233038</v>
+        <v>0.206137727028026</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>53792</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41423</v>
+        <v>41385</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67586</v>
+        <v>68453</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2906600921478853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2238225716317735</v>
+        <v>0.2236210910105751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3651956333815763</v>
+        <v>0.3698783961537618</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -2343,19 +2343,19 @@
         <v>62224</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48811</v>
+        <v>49007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76283</v>
+        <v>76641</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2944355041386979</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2309683441811436</v>
+        <v>0.2318954569602727</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3609609125524598</v>
+        <v>0.3626527674480181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -2364,19 +2364,19 @@
         <v>116016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>96902</v>
+        <v>98815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>135595</v>
+        <v>135020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2926728768685257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.244452700278025</v>
+        <v>0.2492786332161803</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3420623205332997</v>
+        <v>0.3406133046067968</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>68902</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>55452</v>
+        <v>56346</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>81740</v>
+        <v>83279</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3723028620220799</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.299628067569971</v>
+        <v>0.3044614901225513</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.44167559012078</v>
+        <v>0.4499914808462053</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -2414,19 +2414,19 @@
         <v>69540</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>56475</v>
+        <v>57386</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>85029</v>
+        <v>84196</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3290523735665837</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2672333156699535</v>
+        <v>0.2715396136160974</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4023420960971125</v>
+        <v>0.3984014868430625</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>127</v>
@@ -2435,19 +2435,19 @@
         <v>138442</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>120321</v>
+        <v>118578</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>158793</v>
+        <v>158141</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3492447368332791</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.303532658918976</v>
+        <v>0.2991343164185327</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4005841586409313</v>
+        <v>0.3989390331890431</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>513833</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>474156</v>
+        <v>473040</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>555067</v>
+        <v>550653</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2713869641382974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2504308012258892</v>
+        <v>0.2498417331666748</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.293164897222024</v>
+        <v>0.290833847464498</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>304</v>
@@ -2560,19 +2560,19 @@
         <v>313970</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>286929</v>
+        <v>286529</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>344544</v>
+        <v>344857</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3078989360084676</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2813803680608751</v>
+        <v>0.280988560383108</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3378809589658061</v>
+        <v>0.3381885927351254</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>796</v>
@@ -2581,19 +2581,19 @@
         <v>827804</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>781714</v>
+        <v>777934</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>878537</v>
+        <v>877381</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2841679279447014</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2683461938525242</v>
+        <v>0.2670485833476481</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3015835907752031</v>
+        <v>0.3011866707130977</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>436035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>401569</v>
+        <v>399274</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>473080</v>
+        <v>475423</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2302967059989084</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2120934636511681</v>
+        <v>0.2108811030616136</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2498624670376235</v>
+        <v>0.2511000565129176</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>233</v>
@@ -2631,19 +2631,19 @@
         <v>245945</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>219925</v>
+        <v>221275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>276359</v>
+        <v>275806</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2411885438494533</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2156724490962074</v>
+        <v>0.2169963274329078</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2710153170926271</v>
+        <v>0.2704728061930651</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>649</v>
@@ -2652,19 +2652,19 @@
         <v>681979</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>635704</v>
+        <v>635876</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>727809</v>
+        <v>727178</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2341093783423259</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2182242184561734</v>
+        <v>0.2182832830555002</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2498418807455251</v>
+        <v>0.2496250861197096</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>501184</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>465859</v>
+        <v>461785</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>541717</v>
+        <v>539174</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2647062312045768</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2460488621032662</v>
+        <v>0.2438972459882262</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2861138654970498</v>
+        <v>0.2847708958185211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>257</v>
@@ -2702,19 +2702,19 @@
         <v>271928</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>243677</v>
+        <v>243556</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>301688</v>
+        <v>301285</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2666691796683144</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2389645930258059</v>
+        <v>0.2388458782345273</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.295853767190414</v>
+        <v>0.2954591979823801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>741</v>
@@ -2723,19 +2723,19 @@
         <v>773112</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>729586</v>
+        <v>724955</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>828889</v>
+        <v>822136</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2653933585215587</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2504517419560715</v>
+        <v>0.2488619461344728</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2845404671783183</v>
+        <v>0.2822223394919127</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>442308</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>406005</v>
+        <v>406705</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>483758</v>
+        <v>482454</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2336100986582174</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2144364174600949</v>
+        <v>0.214806105789015</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2555022294644186</v>
+        <v>0.2548135380111801</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>181</v>
@@ -2773,19 +2773,19 @@
         <v>187876</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>164165</v>
+        <v>164665</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>215478</v>
+        <v>214260</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1842433404737647</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1609902397730698</v>
+        <v>0.161481026258557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2113110170020887</v>
+        <v>0.2101167918812747</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>601</v>
@@ -2794,19 +2794,19 @@
         <v>630184</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>586831</v>
+        <v>584066</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>677730</v>
+        <v>672919</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2163293351914141</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2014470533847179</v>
+        <v>0.2004979767737623</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2326507897354503</v>
+        <v>0.2309991231230248</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>95908</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78811</v>
+        <v>79549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113478</v>
+        <v>113662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3188874694524081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.262041284421526</v>
+        <v>0.2644934784421443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3773058358412303</v>
+        <v>0.3779180120669041</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -3160,19 +3160,19 @@
         <v>71447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56503</v>
+        <v>58547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86122</v>
+        <v>85266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3675000506117528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2906348454517299</v>
+        <v>0.3011442976989801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.44298488253782</v>
+        <v>0.4385786190388054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -3181,19 +3181,19 @@
         <v>167355</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>146222</v>
+        <v>147071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190435</v>
+        <v>191296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3379736822325853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2952961510224841</v>
+        <v>0.2970094834458644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3845827974457048</v>
+        <v>0.3863219391709775</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>80145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64299</v>
+        <v>65073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96484</v>
+        <v>96772</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2664762418489591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2137903937684573</v>
+        <v>0.2163641410016592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3208042105151087</v>
+        <v>0.3217596458957042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3231,19 +3231,19 @@
         <v>59119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46559</v>
+        <v>47415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72357</v>
+        <v>72154</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3040890580743339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.239485437437942</v>
+        <v>0.2438867803210466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3721779329845771</v>
+        <v>0.3711341359324836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -3252,19 +3252,19 @@
         <v>139264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120025</v>
+        <v>117556</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160713</v>
+        <v>160634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2812437402335046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2423899763531903</v>
+        <v>0.2374050566901962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3245592569341426</v>
+        <v>0.3243994415744682</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>81576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65493</v>
+        <v>67167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97109</v>
+        <v>98623</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2712353575097838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2177608920708999</v>
+        <v>0.223324905649878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3228814220249243</v>
+        <v>0.3279146184369035</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -3302,19 +3302,19 @@
         <v>42047</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31717</v>
+        <v>31232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55972</v>
+        <v>56201</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2162776953519515</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.163142700937114</v>
+        <v>0.1606448669444088</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2879010604503118</v>
+        <v>0.2890809647470602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -3323,19 +3323,19 @@
         <v>123624</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104508</v>
+        <v>105274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>144107</v>
+        <v>144093</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.249657946707275</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2110539747726115</v>
+        <v>0.2126011755702719</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2910232978497303</v>
+        <v>0.2909962893111097</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>43129</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31430</v>
+        <v>30839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57448</v>
+        <v>56176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1434009311888489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1045020619084931</v>
+        <v>0.1025360585046217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1910114679841247</v>
+        <v>0.1867818251909918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3373,19 +3373,19 @@
         <v>21800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14232</v>
+        <v>14011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32671</v>
+        <v>31738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1121331959619618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07320701590174572</v>
+        <v>0.07206922486228251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1680491741495941</v>
+        <v>0.1632470831622765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -3394,19 +3394,19 @@
         <v>64929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50414</v>
+        <v>50877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81738</v>
+        <v>81310</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1311246308266351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1018105535015399</v>
+        <v>0.1027457592043236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1650692079016104</v>
+        <v>0.1642053553743597</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>87699</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>71416</v>
+        <v>71691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103684</v>
+        <v>104185</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3417699101058108</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2783160860425287</v>
+        <v>0.2793844983776033</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4040651182181872</v>
+        <v>0.4060163565005147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -3519,19 +3519,19 @@
         <v>56256</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>44006</v>
+        <v>43873</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70342</v>
+        <v>69648</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3367920113855455</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2634539236475578</v>
+        <v>0.2626587756121699</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4211226284007555</v>
+        <v>0.4169636360251101</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>124</v>
@@ -3540,19 +3540,19 @@
         <v>143955</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>124173</v>
+        <v>123548</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>166848</v>
+        <v>164914</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3398071802743121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2931113777545455</v>
+        <v>0.2916355073120214</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3938477983496272</v>
+        <v>0.3892805439264525</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>71244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58195</v>
+        <v>56606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87666</v>
+        <v>86280</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.27764238385347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2267920370104601</v>
+        <v>0.2205998972950374</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3416408332588323</v>
+        <v>0.3362412194667583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3590,19 +3590,19 @@
         <v>43182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31184</v>
+        <v>32514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54999</v>
+        <v>56509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2585230603278835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.186693245873573</v>
+        <v>0.1946513044074253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3292640059345911</v>
+        <v>0.3383089566968532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -3611,19 +3611,19 @@
         <v>114426</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96247</v>
+        <v>97095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134953</v>
+        <v>133652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2701038482683701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2271909734680954</v>
+        <v>0.2291940041051263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3185582239038931</v>
+        <v>0.3154869307793817</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>66879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54192</v>
+        <v>52801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>84298</v>
+        <v>82822</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2606336356307665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2111915214798726</v>
+        <v>0.2057707698061593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3285174317420463</v>
+        <v>0.3227658075340835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3661,19 +3661,19 @@
         <v>29275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19618</v>
+        <v>20125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41068</v>
+        <v>40343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1752627827648946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1174507007025401</v>
+        <v>0.120483944527417</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.245863189270237</v>
+        <v>0.2415228712336014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>85</v>
@@ -3682,19 +3682,19 @@
         <v>96154</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78605</v>
+        <v>79674</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115289</v>
+        <v>115731</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2269728624659399</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1855479546143039</v>
+        <v>0.1880721802454008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2721405430244024</v>
+        <v>0.273183973429098</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>30780</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21283</v>
+        <v>21415</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43796</v>
+        <v>44160</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1199540704099527</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08294148575391525</v>
+        <v>0.08345715769137996</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1706777538025501</v>
+        <v>0.1720968047142916</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -3732,19 +3732,19 @@
         <v>38322</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27922</v>
+        <v>27074</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50271</v>
+        <v>49791</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2294221455216763</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1671651382560864</v>
+        <v>0.1620835894767946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3009614843772556</v>
+        <v>0.298084601656315</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -3753,19 +3753,19 @@
         <v>69102</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55347</v>
+        <v>54058</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85674</v>
+        <v>84009</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1631161089913778</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1306482917058463</v>
+        <v>0.1276056945409971</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2022341664777233</v>
+        <v>0.1983041044414953</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>57460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44790</v>
+        <v>45150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71264</v>
+        <v>74615</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2055349917681276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1602135537745958</v>
+        <v>0.1615024279619844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2549113183371574</v>
+        <v>0.2668969981457043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3878,19 +3878,19 @@
         <v>24824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16513</v>
+        <v>16261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33740</v>
+        <v>34223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2260501722175356</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1503710957855061</v>
+        <v>0.1480749992715243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3072379391199994</v>
+        <v>0.3116351178031602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -3899,19 +3899,19 @@
         <v>82285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67726</v>
+        <v>65537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99934</v>
+        <v>98316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2113208594564484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1739310413092154</v>
+        <v>0.1683107302059929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2566473745741507</v>
+        <v>0.2524916126993009</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>67273</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>54181</v>
+        <v>53931</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>81866</v>
+        <v>81406</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2406352337570563</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1938050449374595</v>
+        <v>0.1929113688622239</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2928350382843026</v>
+        <v>0.2911891953717569</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -3949,19 +3949,19 @@
         <v>28715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20304</v>
+        <v>20574</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39145</v>
+        <v>39733</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2614847162772947</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1848873969027294</v>
+        <v>0.1873524279221564</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3564530101971579</v>
+        <v>0.361807436704869</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>96</v>
@@ -3970,19 +3970,19 @@
         <v>95989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>79217</v>
+        <v>80146</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>112842</v>
+        <v>114859</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2465153841914892</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2034416502475865</v>
+        <v>0.2058294835737708</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2897988044573548</v>
+        <v>0.2949777395567296</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>98200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83001</v>
+        <v>82303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116361</v>
+        <v>115538</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3512592907767182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2968945254860462</v>
+        <v>0.2943970819731102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.416221960913804</v>
+        <v>0.4132774436752764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -4020,19 +4020,19 @@
         <v>25883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16960</v>
+        <v>17672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35098</v>
+        <v>36317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2356920233391963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.154438361495278</v>
+        <v>0.1609261204078271</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3196058452232864</v>
+        <v>0.3307005037574355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -4041,19 +4041,19 @@
         <v>124083</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105508</v>
+        <v>106011</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143276</v>
+        <v>142773</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3186660157556558</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2709629300045724</v>
+        <v>0.2722545606922493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3679577131767734</v>
+        <v>0.366666527510314</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>56632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45044</v>
+        <v>43319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72003</v>
+        <v>71253</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2025704836980978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1611204394441418</v>
+        <v>0.1549501995579295</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2575551397335317</v>
+        <v>0.254870635560057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -4091,19 +4091,19 @@
         <v>30394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22213</v>
+        <v>21050</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41402</v>
+        <v>40510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2767730881659733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2022758317821787</v>
+        <v>0.1916870371398358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3770083487835899</v>
+        <v>0.368884209452661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -4112,19 +4112,19 @@
         <v>87026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70983</v>
+        <v>72219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105254</v>
+        <v>104600</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2234977405964066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1822954929682336</v>
+        <v>0.1854699777093497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2703106638126806</v>
+        <v>0.2686308745400934</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>70874</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55870</v>
+        <v>55387</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88030</v>
+        <v>88026</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1683171781826068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1326846406101029</v>
+        <v>0.1315363078879861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2090614617212199</v>
+        <v>0.209052152170461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -4237,19 +4237,19 @@
         <v>72778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57058</v>
+        <v>57207</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>89794</v>
+        <v>90571</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2427306073395053</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1903003222780728</v>
+        <v>0.1907996676357538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2994829084059885</v>
+        <v>0.3020749199107775</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -4258,19 +4258,19 @@
         <v>143651</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120501</v>
+        <v>123756</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168256</v>
+        <v>168996</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1992662693868472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1671535559193968</v>
+        <v>0.1716684041353713</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.233396511121313</v>
+        <v>0.2344235512439224</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>104097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84529</v>
+        <v>85779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123252</v>
+        <v>122443</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2472168965633275</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2007470485297509</v>
+        <v>0.2037144926456945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2927091874284147</v>
+        <v>0.2907873709840306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -4308,19 +4308,19 @@
         <v>75665</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60197</v>
+        <v>60509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90291</v>
+        <v>93186</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2523597012894614</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2007698850591786</v>
+        <v>0.2018102287842906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3011418665922055</v>
+        <v>0.3107980895381461</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>166</v>
@@ -4329,19 +4329,19 @@
         <v>179761</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>155120</v>
+        <v>156402</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203162</v>
+        <v>205003</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2493558267849025</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2151742585649976</v>
+        <v>0.2169533474470597</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2818165066180994</v>
+        <v>0.2843705847789249</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>120016</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>100918</v>
+        <v>100975</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>141679</v>
+        <v>139233</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2850245199378772</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2396671094842864</v>
+        <v>0.2398025388172038</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3364705109892089</v>
+        <v>0.3306618410453652</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>75</v>
@@ -4379,19 +4379,19 @@
         <v>79821</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>64789</v>
+        <v>65773</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>96368</v>
+        <v>97074</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2662214914727932</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2160871550746062</v>
+        <v>0.2193689729463051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3214088570611833</v>
+        <v>0.3237647877558422</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>191</v>
@@ -4400,19 +4400,19 @@
         <v>199837</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>175892</v>
+        <v>176367</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>226469</v>
+        <v>225244</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2772042024296648</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2439893014839616</v>
+        <v>0.2446477503505323</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3141462582301995</v>
+        <v>0.3124478937382429</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>126087</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>107903</v>
+        <v>108509</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>146261</v>
+        <v>146611</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2994414053161886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2562566114622681</v>
+        <v>0.25769653200346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3473534023084918</v>
+        <v>0.3481837380291106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4450,19 +4450,19 @@
         <v>71566</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56570</v>
+        <v>58264</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86941</v>
+        <v>89374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.23868819989824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1886727934917858</v>
+        <v>0.1943236239998919</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2899670082019576</v>
+        <v>0.2980834874572204</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>191</v>
@@ -4471,19 +4471,19 @@
         <v>197652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176349</v>
+        <v>175557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223248</v>
+        <v>222638</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2741737013985854</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2446231957640816</v>
+        <v>0.2435246373265842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3096790848495998</v>
+        <v>0.3088326657757121</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>14991</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8937</v>
+        <v>8709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23638</v>
+        <v>23908</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09805112746495535</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05845141961527268</v>
+        <v>0.05696095618426617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1546107662549693</v>
+        <v>0.1563778916491987</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -4596,19 +4596,19 @@
         <v>25205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16807</v>
+        <v>17465</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36046</v>
+        <v>36104</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.145045960424843</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09671683043190997</v>
+        <v>0.1005060034344853</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2074276446199227</v>
+        <v>0.2077624726252428</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -4617,19 +4617,19 @@
         <v>40196</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29046</v>
+        <v>29882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53668</v>
+        <v>53906</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1230509584516518</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08891664227736501</v>
+        <v>0.09147687664560709</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1642913844485957</v>
+        <v>0.1650201257262746</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>26532</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17197</v>
+        <v>18082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37586</v>
+        <v>37203</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1735398065033535</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1124802405204479</v>
+        <v>0.1182666539760279</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.245841765164915</v>
+        <v>0.2433375306164378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -4667,19 +4667,19 @@
         <v>45597</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32936</v>
+        <v>33829</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57286</v>
+        <v>58204</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2623912511021053</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1895297675950899</v>
+        <v>0.1946688998576483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3296555000284743</v>
+        <v>0.3349398196996082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -4688,19 +4688,19 @@
         <v>72129</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57854</v>
+        <v>57197</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>87109</v>
+        <v>88092</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2208060900070864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.177105316809223</v>
+        <v>0.1750942499026643</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2666617685255495</v>
+        <v>0.2696737748786985</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>54806</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43531</v>
+        <v>43541</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67504</v>
+        <v>67397</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3584745294501196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2847273605354254</v>
+        <v>0.2847876770089185</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4415268746173697</v>
+        <v>0.4408287175366737</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>50</v>
@@ -4738,19 +4738,19 @@
         <v>55726</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43617</v>
+        <v>42971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68552</v>
+        <v>70287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3206771140633485</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2509944060333759</v>
+        <v>0.2472769457393752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3944845579391318</v>
+        <v>0.4044684498433617</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>104</v>
@@ -4759,19 +4759,19 @@
         <v>110532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92884</v>
+        <v>91712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>126575</v>
+        <v>127476</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3383674466733859</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2843424642942877</v>
+        <v>0.2807543876345903</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3874783628546731</v>
+        <v>0.390238128463443</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>56559</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>44318</v>
+        <v>44074</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>68983</v>
+        <v>69973</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3699345365815715</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2898743158634669</v>
+        <v>0.2882789442147105</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4512013184761128</v>
+        <v>0.4576754009494719</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>42</v>
@@ -4809,19 +4809,19 @@
         <v>47247</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>34413</v>
+        <v>35413</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>61264</v>
+        <v>60010</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2718856744097032</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1980332522476297</v>
+        <v>0.2037851434344929</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3525506687183002</v>
+        <v>0.3453340052535794</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>92</v>
@@ -4830,19 +4830,19 @@
         <v>103805</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>86485</v>
+        <v>86674</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>121284</v>
+        <v>121225</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3177755048678759</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2647543867982086</v>
+        <v>0.2653301513628535</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3712820370396464</v>
+        <v>0.371102121367858</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>326932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>296285</v>
+        <v>296541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>364448</v>
+        <v>364552</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2317208895050538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2099988186108231</v>
+        <v>0.210180197913573</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2583115983535314</v>
+        <v>0.2583850913530131</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>227</v>
@@ -4955,19 +4955,19 @@
         <v>250510</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>223128</v>
+        <v>225525</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>279447</v>
+        <v>276683</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.265126883581478</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2361471390547893</v>
+        <v>0.2386839755160745</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2957521994635436</v>
+        <v>0.2928264419652036</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>527</v>
@@ -4976,19 +4976,19 @@
         <v>577442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>533181</v>
+        <v>535389</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>624374</v>
+        <v>620178</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2451196871386804</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2263310771550078</v>
+        <v>0.22726814181679</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2650417924206861</v>
+        <v>0.2632604782501257</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>349290</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>316838</v>
+        <v>315583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>383049</v>
+        <v>382725</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2475679355296434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2245667976802254</v>
+        <v>0.2236772835949832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2714952964118934</v>
+        <v>0.2712652678347551</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>236</v>
@@ -5026,19 +5026,19 @@
         <v>252279</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>227381</v>
+        <v>226387</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>282470</v>
+        <v>280416</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2669984600172905</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2406484164656107</v>
+        <v>0.2395958927532191</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2989509884786509</v>
+        <v>0.2967770782242223</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>567</v>
@@ -5047,19 +5047,19 @@
         <v>601569</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>558153</v>
+        <v>559324</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>645424</v>
+        <v>642404</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2553613173080633</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2369313046773533</v>
+        <v>0.2374287486166478</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2739773067954584</v>
+        <v>0.2726953896990246</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>421478</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>387060</v>
+        <v>386436</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>457708</v>
+        <v>454484</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2987326584701913</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2743383264532896</v>
+        <v>0.2738955543941956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3244118493623331</v>
+        <v>0.3221264233544787</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>212</v>
@@ -5097,19 +5097,19 @@
         <v>232752</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203667</v>
+        <v>204045</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>260244</v>
+        <v>258387</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2463322715334601</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2155502782199509</v>
+        <v>0.215950143116786</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2754282178058967</v>
+        <v>0.2734627999700138</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>612</v>
@@ -5118,19 +5118,19 @@
         <v>654230</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>613030</v>
+        <v>609496</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>704600</v>
+        <v>696123</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.277715406928963</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2602262344054299</v>
+        <v>0.258726055739776</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2990972409795797</v>
+        <v>0.2954986793060062</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>313187</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>281176</v>
+        <v>281367</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>345084</v>
+        <v>346638</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2219785164951115</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1992903341390278</v>
+        <v>0.1994259141165823</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2445862185566406</v>
+        <v>0.2456882611379761</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>197</v>
@@ -5168,19 +5168,19 @@
         <v>209329</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>182680</v>
+        <v>183531</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>234634</v>
+        <v>234936</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2215423848677714</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.193338514829299</v>
+        <v>0.1942391059306514</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2483242825641559</v>
+        <v>0.2486438857526442</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>490</v>
@@ -5189,19 +5189,19 @@
         <v>522515</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>477947</v>
+        <v>479997</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>558653</v>
+        <v>566410</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2218035886242933</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2028848559041816</v>
+        <v>0.2037547221822619</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.237143661276273</v>
+        <v>0.2404366384784795</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>139676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120942</v>
+        <v>122805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155483</v>
+        <v>157201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5077809336325287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4396771519426934</v>
+        <v>0.4464488976163134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5652481492792044</v>
+        <v>0.5714922006601312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -5555,19 +5555,19 @@
         <v>95239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80704</v>
+        <v>81468</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109386</v>
+        <v>111681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4446799968172878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3768130103515651</v>
+        <v>0.380381223244987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5107362072235839</v>
+        <v>0.5214515184356345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>223</v>
@@ -5576,19 +5576,19 @@
         <v>234915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212579</v>
+        <v>211211</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>255934</v>
+        <v>256231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4801575672740642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4345049253111796</v>
+        <v>0.4317084050706918</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5231194485994486</v>
+        <v>0.5237267445059451</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>63273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50519</v>
+        <v>49497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80104</v>
+        <v>76817</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2300254171435717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1836592403145082</v>
+        <v>0.1799444142419692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.291210629440308</v>
+        <v>0.2792609833694258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -5626,19 +5626,19 @@
         <v>46575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35444</v>
+        <v>36244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60320</v>
+        <v>60169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.217463769166688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1654902675478754</v>
+        <v>0.1692266071847354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2816385367735526</v>
+        <v>0.2809373798088969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -5647,19 +5647,19 @@
         <v>109848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92047</v>
+        <v>92668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130023</v>
+        <v>129717</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2245263703521188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1881417298934783</v>
+        <v>0.189409277318252</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2657617071578728</v>
+        <v>0.2651368640991704</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>46577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35011</v>
+        <v>34158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62069</v>
+        <v>60713</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1693285342480044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1272796277981422</v>
+        <v>0.1241787975701543</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2256472442575216</v>
+        <v>0.2207182384806491</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -5697,19 +5697,19 @@
         <v>43114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33107</v>
+        <v>32674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56099</v>
+        <v>55825</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2013051699115186</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.154580329061184</v>
+        <v>0.1525602670224438</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2619333409083505</v>
+        <v>0.2606546216853637</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -5718,19 +5718,19 @@
         <v>89692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73294</v>
+        <v>72657</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107662</v>
+        <v>108131</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1833267784330424</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1498099204876084</v>
+        <v>0.1485076627298388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2200578578319659</v>
+        <v>0.2210162500299052</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>25545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16671</v>
+        <v>16175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37259</v>
+        <v>37318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09286511497589522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06060761007166439</v>
+        <v>0.05880443651311328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1354522944552748</v>
+        <v>0.1356685019022283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5768,19 +5768,19 @@
         <v>29246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20212</v>
+        <v>19719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40028</v>
+        <v>40807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1365510641045056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09437256605943295</v>
+        <v>0.09206889139186875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1868948350634886</v>
+        <v>0.1905337877586033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -5789,19 +5789,19 @@
         <v>54790</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41709</v>
+        <v>39713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71580</v>
+        <v>69011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1119892839407747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08525266170695869</v>
+        <v>0.08117184930322251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1463074330980929</v>
+        <v>0.1410550951380515</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>97184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80675</v>
+        <v>81040</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113986</v>
+        <v>112981</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4027137827456884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3343034295066598</v>
+        <v>0.3358153366042468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4723392213422181</v>
+        <v>0.4681745155530451</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>90</v>
@@ -5914,19 +5914,19 @@
         <v>94932</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>81115</v>
+        <v>80987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>108510</v>
+        <v>108915</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5045025414400548</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4310745420244291</v>
+        <v>0.4303922539978145</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5766586122319818</v>
+        <v>0.5788128578165345</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>179</v>
@@ -5935,19 +5935,19 @@
         <v>192116</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>169239</v>
+        <v>170832</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>212889</v>
+        <v>213925</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4473096662882602</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3940437860525535</v>
+        <v>0.397753393093877</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4956759149093127</v>
+        <v>0.4980866386639168</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>64909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51566</v>
+        <v>51024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78801</v>
+        <v>79869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2689706444463913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2136820110284898</v>
+        <v>0.2114334616236438</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.326537089254698</v>
+        <v>0.3309634657667095</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -5985,19 +5985,19 @@
         <v>46355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35289</v>
+        <v>35765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59258</v>
+        <v>59755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2463460835219812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1875368329807288</v>
+        <v>0.1900691342628133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3149154934053139</v>
+        <v>0.31755877963396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -6006,19 +6006,19 @@
         <v>111264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93730</v>
+        <v>92249</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129939</v>
+        <v>129196</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2590583290087274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2182344038312599</v>
+        <v>0.2147846877055783</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3025407045087435</v>
+        <v>0.3008094377102183</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>51964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39161</v>
+        <v>39330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66500</v>
+        <v>65736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2153280514129875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1622754743675877</v>
+        <v>0.1629759072898613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.275563631660811</v>
+        <v>0.2723993404282413</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -6056,19 +6056,19 @@
         <v>27150</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18768</v>
+        <v>17819</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39990</v>
+        <v>38679</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.144282470049809</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09974017557134533</v>
+        <v>0.09469809077209436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2125230044206826</v>
+        <v>0.2055513502299897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -6077,19 +6077,19 @@
         <v>79113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62675</v>
+        <v>63384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>97193</v>
+        <v>96832</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1842014268885648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1459272665193466</v>
+        <v>0.1475785121319143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2262966789040257</v>
+        <v>0.2254570210504088</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>27266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18696</v>
+        <v>18256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38743</v>
+        <v>39297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1129875213949327</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07747255835993831</v>
+        <v>0.07564826868769671</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1605428978709028</v>
+        <v>0.1628395609182625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -6127,19 +6127,19 @@
         <v>19733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12656</v>
+        <v>13115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29521</v>
+        <v>30732</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.104868904988155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06726074053311645</v>
+        <v>0.06969935293111788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1568833583792603</v>
+        <v>0.1633188040108997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -6148,19 +6148,19 @@
         <v>47000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33930</v>
+        <v>35911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60127</v>
+        <v>63608</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1094305778144476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07899935960810339</v>
+        <v>0.08361153979540528</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1399952565695527</v>
+        <v>0.1481009359085324</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>47930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35799</v>
+        <v>36972</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61488</v>
+        <v>62474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.224363367386284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1675758301270903</v>
+        <v>0.1730683164378727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2878295532002464</v>
+        <v>0.2924449584332798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -6273,19 +6273,19 @@
         <v>15901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9872</v>
+        <v>10140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23451</v>
+        <v>22914</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2441901405511733</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1516081475737967</v>
+        <v>0.1557118032784524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3601262688272691</v>
+        <v>0.3518785105013401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -6294,19 +6294,19 @@
         <v>63831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50831</v>
+        <v>50372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78763</v>
+        <v>81855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.22899511342283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1823559461020051</v>
+        <v>0.1807090981474023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2825643153856484</v>
+        <v>0.2936538390111633</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>71105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57038</v>
+        <v>57306</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85379</v>
+        <v>86147</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3328481105970966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2669971541713537</v>
+        <v>0.2682543702271548</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3996660683235782</v>
+        <v>0.4032569146794526</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -6344,19 +6344,19 @@
         <v>13957</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7743</v>
+        <v>8400</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21927</v>
+        <v>21843</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2143359269904583</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1189027369856532</v>
+        <v>0.1289914496680472</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3367346849974514</v>
+        <v>0.3354445419263178</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>79</v>
@@ -6365,19 +6365,19 @@
         <v>85062</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>71110</v>
+        <v>69233</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>101524</v>
+        <v>101972</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3051623983464251</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2551075684636098</v>
+        <v>0.2483753700331259</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3642197449554912</v>
+        <v>0.3658248490417839</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>65642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52952</v>
+        <v>52840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80874</v>
+        <v>81215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072724471641742</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2478717612696204</v>
+        <v>0.247346432231752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3785751425614168</v>
+        <v>0.3801738784309185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6415,19 +6415,19 @@
         <v>19050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12051</v>
+        <v>12610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26504</v>
+        <v>27274</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2925429679861973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1850682592692868</v>
+        <v>0.1936419303557081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4070132981432065</v>
+        <v>0.4188334935404126</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -6436,19 +6436,19 @@
         <v>84692</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69522</v>
+        <v>68280</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100505</v>
+        <v>100057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3038314834614272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2494089775314514</v>
+        <v>0.2449554433109633</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3605631857711494</v>
+        <v>0.3589553989713284</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>28950</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20240</v>
+        <v>19993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40550</v>
+        <v>41098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1355160748524452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09474598282141063</v>
+        <v>0.09358768437569058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1898179612743678</v>
+        <v>0.1923798145904785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -6486,19 +6486,19 @@
         <v>16210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9796</v>
+        <v>10049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23794</v>
+        <v>24165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2489309644721712</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1504332870728065</v>
+        <v>0.1543161962825212</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3654013441509211</v>
+        <v>0.3710915533155884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -6507,19 +6507,19 @@
         <v>45160</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32584</v>
+        <v>33974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59424</v>
+        <v>59663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1620110047693176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1168942751226192</v>
+        <v>0.1218835283431216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2131849422533136</v>
+        <v>0.214043058082614</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>105179</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>87603</v>
+        <v>87877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>125224</v>
+        <v>123199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2175662401229967</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1812092630948327</v>
+        <v>0.1817758449307683</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2590308479361607</v>
+        <v>0.2548415786779347</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -6632,19 +6632,19 @@
         <v>102940</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84526</v>
+        <v>87314</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120646</v>
+        <v>121893</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2828323478247229</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2322397602935209</v>
+        <v>0.2398995542871296</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3314800942243248</v>
+        <v>0.3349080753456763</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>201</v>
@@ -6653,19 +6653,19 @@
         <v>208119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183024</v>
+        <v>186066</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234682</v>
+        <v>235744</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2455983913667908</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2159842547552078</v>
+        <v>0.2195749369313554</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2769450295719283</v>
+        <v>0.2781991101626754</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>107696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89448</v>
+        <v>90081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126947</v>
+        <v>128288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2227736402351507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1850256062185813</v>
+        <v>0.186335348796275</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2625934850400656</v>
+        <v>0.2653680931733131</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -6703,19 +6703,19 @@
         <v>93479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78506</v>
+        <v>77376</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111499</v>
+        <v>110031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2568383187248675</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2156990920275497</v>
+        <v>0.2125945845092138</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3063482818799301</v>
+        <v>0.3023147603553744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -6724,19 +6724,19 @@
         <v>201175</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>178221</v>
+        <v>177965</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>227254</v>
+        <v>228741</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2374046064919252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.210316953958266</v>
+        <v>0.2100145663195008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2681802793566331</v>
+        <v>0.2699350279375677</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>145214</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>125419</v>
+        <v>127675</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>166965</v>
+        <v>165216</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3003793076803518</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2594339148295641</v>
+        <v>0.2640996471949215</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3453723455735314</v>
+        <v>0.3417551060882185</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>86</v>
@@ -6774,19 +6774,19 @@
         <v>84139</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69177</v>
+        <v>69505</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>102040</v>
+        <v>99273</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2311750159547343</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1900679607584301</v>
+        <v>0.1909690677366584</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2803595100281935</v>
+        <v>0.2727583556555695</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>225</v>
@@ -6795,19 +6795,19 @@
         <v>229352</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>204499</v>
+        <v>204972</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>255391</v>
+        <v>255918</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2706556847972784</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2413274562052014</v>
+        <v>0.241884771913767</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3013844941982719</v>
+        <v>0.3020063941317209</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>125345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106264</v>
+        <v>106008</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>147609</v>
+        <v>145545</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2592808119615008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.219810286222039</v>
+        <v>0.2192813926445338</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3053347547661983</v>
+        <v>0.3010643658563331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -6845,19 +6845,19 @@
         <v>83403</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69500</v>
+        <v>69055</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101314</v>
+        <v>101488</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2291543174956754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1909551322547326</v>
+        <v>0.1897311936164369</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2783643541664731</v>
+        <v>0.2788425561464031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>195</v>
@@ -6866,19 +6866,19 @@
         <v>208748</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182979</v>
+        <v>185123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234867</v>
+        <v>233163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2463413173440056</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2159320059712952</v>
+        <v>0.2184616082612605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.277163374921409</v>
+        <v>0.2751526211986388</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>18226</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11324</v>
+        <v>11496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27816</v>
+        <v>28446</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09442465964277166</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05866588708931157</v>
+        <v>0.05955797592629561</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1441073863654439</v>
+        <v>0.1473723662629106</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -6991,19 +6991,19 @@
         <v>26833</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18745</v>
+        <v>17788</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36911</v>
+        <v>36660</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1364723107438773</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09533315954705471</v>
+        <v>0.0904659224191246</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1877270578410462</v>
+        <v>0.1864481263628736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -7012,19 +7012,19 @@
         <v>45059</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33583</v>
+        <v>34060</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57942</v>
+        <v>59621</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1156427484271389</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0861887846217274</v>
+        <v>0.08741335278481653</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1487057879352559</v>
+        <v>0.1530135765763933</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>40528</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29943</v>
+        <v>29476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54389</v>
+        <v>52813</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2099632282991322</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1551261394553656</v>
+        <v>0.152709638756843</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2817786220502076</v>
+        <v>0.2736104223178036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -7062,19 +7062,19 @@
         <v>59317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46467</v>
+        <v>48206</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72585</v>
+        <v>73227</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3016809065610871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2363270648701885</v>
+        <v>0.2451727982352019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3691586228306625</v>
+        <v>0.3724258596824194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -7083,19 +7083,19 @@
         <v>99844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83876</v>
+        <v>83500</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119279</v>
+        <v>117578</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2562458098345136</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2152632196811415</v>
+        <v>0.2142997956633954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3061245827287939</v>
+        <v>0.3017583932974645</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>72266</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59486</v>
+        <v>57763</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87519</v>
+        <v>85905</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3743919124163788</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3081835484069689</v>
+        <v>0.2992580513111582</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4534167048519094</v>
+        <v>0.4450508067579897</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -7133,19 +7133,19 @@
         <v>54065</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42295</v>
+        <v>42174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66189</v>
+        <v>66973</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2749667190128733</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2151075978561723</v>
+        <v>0.2144906163787412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3366319676200597</v>
+        <v>0.3406164106982394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>121</v>
@@ -7154,19 +7154,19 @@
         <v>126330</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108125</v>
+        <v>108176</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>146772</v>
+        <v>145958</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.324219964024641</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2774987182432344</v>
+        <v>0.2776286367223096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3766831896768981</v>
+        <v>0.3745938097495889</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>62003</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>49325</v>
+        <v>49953</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>76385</v>
+        <v>75803</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3212201996417173</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2555388956832323</v>
+        <v>0.2587929849313774</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3957343889429236</v>
+        <v>0.3927158047941598</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>54</v>
@@ -7204,19 +7204,19 @@
         <v>56407</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>43481</v>
+        <v>42882</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>68691</v>
+        <v>69611</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2868800636821623</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2211392222002664</v>
+        <v>0.2180918799095994</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3493559011560135</v>
+        <v>0.354035879134066</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>109</v>
@@ -7225,19 +7225,19 @@
         <v>118409</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>101712</v>
+        <v>100626</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>136467</v>
+        <v>137415</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3038914777137064</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2610383748731616</v>
+        <v>0.2582513132985192</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3502362010156345</v>
+        <v>0.3526680678467979</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>408195</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>372621</v>
+        <v>374668</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>444644</v>
+        <v>442875</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2902251139270288</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2649324885118596</v>
+        <v>0.2663876444854463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3161404746693172</v>
+        <v>0.3148830180255334</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>329</v>
@@ -7350,19 +7350,19 @@
         <v>335846</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>305205</v>
+        <v>305907</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>368375</v>
+        <v>366030</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3266839852022568</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2968792646094959</v>
+        <v>0.2975614130942098</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3583258567471184</v>
+        <v>0.3560442815785442</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>708</v>
@@ -7371,19 +7371,19 @@
         <v>744040</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>696599</v>
+        <v>692988</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>793020</v>
+        <v>788914</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3056208948972308</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2861338837291944</v>
+        <v>0.2846507373858859</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3257396009250955</v>
+        <v>0.3240528999047775</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>347511</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>318679</v>
+        <v>315728</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>383158</v>
+        <v>379553</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2470793270514087</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2265800547982856</v>
+        <v>0.2244815257651569</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2724239893269121</v>
+        <v>0.2698609293898344</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>255</v>
@@ -7421,19 +7421,19 @@
         <v>259683</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>231609</v>
+        <v>232223</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>290452</v>
+        <v>286711</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.252599229162577</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2252909661571559</v>
+        <v>0.2258880083509771</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2825285727612407</v>
+        <v>0.2788898150231279</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>580</v>
@@ -7442,19 +7442,19 @@
         <v>607195</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>564245</v>
+        <v>561505</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>652630</v>
+        <v>647423</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2494102605364024</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2317682924794478</v>
+        <v>0.2306430521639179</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2680734348363367</v>
+        <v>0.2659343360999239</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>381662</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>347044</v>
+        <v>348857</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>418665</v>
+        <v>417952</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2713603639430281</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2467470361236264</v>
+        <v>0.2480361134602904</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2976696633163836</v>
+        <v>0.2971626966193489</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>227</v>
@@ -7492,19 +7492,19 @@
         <v>227517</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>202210</v>
+        <v>200946</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>254249</v>
+        <v>254236</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2213102869585858</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1966937391161239</v>
+        <v>0.1954637835300869</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2473134099802009</v>
+        <v>0.2473002041606593</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>586</v>
@@ -7513,19 +7513,19 @@
         <v>609179</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>568205</v>
+        <v>570027</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>654000</v>
+        <v>651878</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2502253151649882</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2333948972502933</v>
+        <v>0.2341431974046919</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2686360807503695</v>
+        <v>0.267764180638306</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>269108</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>237960</v>
+        <v>242123</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>303553</v>
+        <v>301110</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1913351950785344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.169188598651668</v>
+        <v>0.1721488010813191</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2158251094926519</v>
+        <v>0.2140881443998357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>193</v>
@@ -7563,19 +7563,19 @@
         <v>204999</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>181158</v>
+        <v>179891</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>232142</v>
+        <v>231767</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1994064986765804</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.176215994575322</v>
+        <v>0.1749835619959112</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2258092400320948</v>
+        <v>0.2254447338967203</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>438</v>
@@ -7584,19 +7584,19 @@
         <v>474107</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>432989</v>
+        <v>438504</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>513882</v>
+        <v>514271</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1947435294013786</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1778539090510547</v>
+        <v>0.1801192554043805</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.211081225506999</v>
+        <v>0.2112410024487329</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>114824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98704</v>
+        <v>98376</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129792</v>
+        <v>130844</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5876942083727501</v>
+        <v>0.5876942083727502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5051902905578096</v>
+        <v>0.5035099627644448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6643075499863949</v>
+        <v>0.669689779322452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -7950,19 +7950,19 @@
         <v>82568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71036</v>
+        <v>70771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94187</v>
+        <v>93218</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5163795746367973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4442622517091375</v>
+        <v>0.4426037760374029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5890499324745045</v>
+        <v>0.5829851020200734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -7971,19 +7971,19 @@
         <v>197391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176148</v>
+        <v>178341</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215061</v>
+        <v>217813</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5555981169595956</v>
+        <v>0.5555981169595955</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4958035741753337</v>
+        <v>0.5019773172025205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6053329300536742</v>
+        <v>0.6130791313603156</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>36120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26099</v>
+        <v>26000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49674</v>
+        <v>49390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1848718374090439</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1335808140368441</v>
+        <v>0.1330724713466806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2542414492953493</v>
+        <v>0.2527898980197079</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -8021,19 +8021,19 @@
         <v>41664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32198</v>
+        <v>33006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51871</v>
+        <v>51988</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2605662606935195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2013640555964346</v>
+        <v>0.2064181498499583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3244054207495478</v>
+        <v>0.3251322681305983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>96</v>
@@ -8042,19 +8042,19 @@
         <v>77784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63922</v>
+        <v>62888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93906</v>
+        <v>94017</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2189391108693537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1799216629794252</v>
+        <v>0.1770109456797084</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2643166364476053</v>
+        <v>0.264629770114639</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>31499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21857</v>
+        <v>20590</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44133</v>
+        <v>43554</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1612187487868887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1118710217555795</v>
+        <v>0.1053838544668544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2258833369582841</v>
+        <v>0.2229191890402442</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -8092,19 +8092,19 @@
         <v>17044</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11078</v>
+        <v>11131</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25415</v>
+        <v>24096</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1065962937980039</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06928392267876947</v>
+        <v>0.06961099197551059</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1589438758728738</v>
+        <v>0.1506957332587749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -8113,19 +8113,19 @@
         <v>48543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37385</v>
+        <v>37096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62924</v>
+        <v>63192</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1366351925559841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1052289127751725</v>
+        <v>0.1044152037928763</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1771137333951467</v>
+        <v>0.1778654931889348</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>12937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6621</v>
+        <v>6546</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23672</v>
+        <v>23340</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06621520543131723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03388939068731213</v>
+        <v>0.03350262716586734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1211602920792008</v>
+        <v>0.1194587704378467</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -8163,19 +8163,19 @@
         <v>18621</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11894</v>
+        <v>12520</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28079</v>
+        <v>28377</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1164578708716794</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0743856527973122</v>
+        <v>0.07829746003780741</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1756086575513601</v>
+        <v>0.1774706819087584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -8184,19 +8184,19 @@
         <v>31558</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21774</v>
+        <v>20787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43825</v>
+        <v>43983</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08882757961506663</v>
+        <v>0.0888275796150666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06128801289906921</v>
+        <v>0.05850841781610287</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.12335561263859</v>
+        <v>0.1237985595789829</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>64610</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51489</v>
+        <v>50928</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79265</v>
+        <v>78002</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3912362084901696</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3117835193674116</v>
+        <v>0.3083906190854483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.479980349066046</v>
+        <v>0.4723335228017598</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -8309,19 +8309,19 @@
         <v>50318</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40778</v>
+        <v>41077</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61094</v>
+        <v>60550</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.40520531483616</v>
+        <v>0.4052053148361601</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3283785710596014</v>
+        <v>0.3307873291210388</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4919803123960768</v>
+        <v>0.4876046949542622</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -8330,19 +8330,19 @@
         <v>114928</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>98392</v>
+        <v>97716</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132979</v>
+        <v>130918</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3972318541447887</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3400794642510093</v>
+        <v>0.3377435903442407</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4596261513681339</v>
+        <v>0.4524993849668571</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>51207</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38945</v>
+        <v>38573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65180</v>
+        <v>64892</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3100760940026263</v>
+        <v>0.3100760940026264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2358293268922068</v>
+        <v>0.2335728919732836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3946908926035712</v>
+        <v>0.3929446706081285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -8380,19 +8380,19 @@
         <v>41731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32450</v>
+        <v>32406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52327</v>
+        <v>51759</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3360516839059459</v>
+        <v>0.336051683905946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2613156441960942</v>
+        <v>0.2609647917764567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4213873718811079</v>
+        <v>0.4168068272274276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -8401,19 +8401,19 @@
         <v>92937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77142</v>
+        <v>78321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108618</v>
+        <v>109969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3212250128291129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2666306813507638</v>
+        <v>0.2707067356484708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3754233141471788</v>
+        <v>0.3800916922801579</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>28778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19554</v>
+        <v>18946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41196</v>
+        <v>41466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.174261742123873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1184055690466384</v>
+        <v>0.1147238917700325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2494604627927542</v>
+        <v>0.2510916586340958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -8451,19 +8451,19 @@
         <v>19135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12952</v>
+        <v>13416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26316</v>
+        <v>27170</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1540935839594157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1042976200943947</v>
+        <v>0.1080349615742337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2119185897817964</v>
+        <v>0.2187983317969514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -8472,19 +8472,19 @@
         <v>47913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35922</v>
+        <v>37119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61798</v>
+        <v>62657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1656054167394573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1241583368958145</v>
+        <v>0.1282986060584777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2135981846992172</v>
+        <v>0.2165643000553744</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>20548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11954</v>
+        <v>11728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35375</v>
+        <v>33404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.124425955383331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07238471086833352</v>
+        <v>0.07102019230939013</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2142107211128611</v>
+        <v>0.2022732295008481</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -8522,19 +8522,19 @@
         <v>12995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7158</v>
+        <v>7178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22599</v>
+        <v>22126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1046494172984784</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05763987082373197</v>
+        <v>0.05780487686165321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1819860185504207</v>
+        <v>0.1781775278346211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -8543,19 +8543,19 @@
         <v>33543</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23317</v>
+        <v>22492</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>49892</v>
+        <v>48590</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1159377162866411</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08059377297348604</v>
+        <v>0.07774031366433871</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1724457197506082</v>
+        <v>0.1679463748673776</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>19599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10732</v>
+        <v>11976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30115</v>
+        <v>32144</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.140158834432392</v>
+        <v>0.1401588344323919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07675261237594644</v>
+        <v>0.08564406080155794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2153688214950719</v>
+        <v>0.2298752554437331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -8668,19 +8668,19 @@
         <v>10808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5231</v>
+        <v>5801</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18585</v>
+        <v>18796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2219344224618316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1074167139186515</v>
+        <v>0.1191188314013323</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3816128566151887</v>
+        <v>0.3859525752108307</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -8689,19 +8689,19 @@
         <v>30407</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20044</v>
+        <v>19883</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44361</v>
+        <v>43421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1612822881623414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1063149020945377</v>
+        <v>0.105461622943636</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2352983506467249</v>
+        <v>0.2303105131673248</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>45777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>34599</v>
+        <v>34297</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59311</v>
+        <v>58760</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3273691589696788</v>
+        <v>0.3273691589696787</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2474361564570762</v>
+        <v>0.2452740172798759</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4241558935336426</v>
+        <v>0.4202211785852636</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -8739,19 +8739,19 @@
         <v>12935</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8062</v>
+        <v>8746</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19048</v>
+        <v>18787</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2656138629745327</v>
+        <v>0.2656138629745328</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1655422731884789</v>
+        <v>0.1795833653484262</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3911385860421376</v>
+        <v>0.3857629949685704</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -8760,19 +8760,19 @@
         <v>58712</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>45743</v>
+        <v>45438</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74272</v>
+        <v>72730</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3114171472634079</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2426250841486491</v>
+        <v>0.2410096013516823</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3939470138269339</v>
+        <v>0.3857700898484157</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>47251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35860</v>
+        <v>34569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59426</v>
+        <v>58528</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3379117478779268</v>
+        <v>0.3379117478779267</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2564505732131562</v>
+        <v>0.2472211145845885</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4249789263094034</v>
+        <v>0.4185562461771608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -8810,19 +8810,19 @@
         <v>16927</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11179</v>
+        <v>11354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23711</v>
+        <v>22974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3475785669917095</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2295449242942948</v>
+        <v>0.2331386025202304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4868705632751916</v>
+        <v>0.4717441191647927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -8831,19 +8831,19 @@
         <v>64178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50376</v>
+        <v>51817</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77844</v>
+        <v>80028</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3404087841106992</v>
+        <v>0.3404087841106991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2672039420373245</v>
+        <v>0.2748472354057405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.412895019890479</v>
+        <v>0.4244821261668946</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>27206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17418</v>
+        <v>15800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40915</v>
+        <v>40206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1945602587200025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1245647009065666</v>
+        <v>0.1129928711685692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2926038053131425</v>
+        <v>0.2875285235501757</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -8881,19 +8881,19 @@
         <v>8029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4282</v>
+        <v>3979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13519</v>
+        <v>12819</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1648731475719261</v>
+        <v>0.1648731475719262</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08792952108380081</v>
+        <v>0.0817117384738133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2775981826386495</v>
+        <v>0.2632216883797722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -8902,19 +8902,19 @@
         <v>35235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24155</v>
+        <v>24011</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49313</v>
+        <v>49756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1868917804635514</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1281237524538332</v>
+        <v>0.1273596716905436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2615627697934134</v>
+        <v>0.2639120763388011</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>43805</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30981</v>
+        <v>30580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59609</v>
+        <v>57695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.151967413378631</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1074780806547012</v>
+        <v>0.1060883293895982</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2067947105874983</v>
+        <v>0.2001560528882492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -9027,19 +9027,19 @@
         <v>43381</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33163</v>
+        <v>33238</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55106</v>
+        <v>55333</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1977279255361836</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1511587519334611</v>
+        <v>0.1514980972318618</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2511736605432834</v>
+        <v>0.2522075652467405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -9048,19 +9048,19 @@
         <v>87185</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72263</v>
+        <v>70497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106251</v>
+        <v>106347</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.171744218783888</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1423486049471803</v>
+        <v>0.138870928224276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2093012468391014</v>
+        <v>0.2094899671288241</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>82514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65092</v>
+        <v>65743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99348</v>
+        <v>99928</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2862581177707504</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2258167986965386</v>
+        <v>0.2280766664857069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3446567316916591</v>
+        <v>0.3466693534652564</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -9098,19 +9098,19 @@
         <v>73118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60680</v>
+        <v>59828</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86163</v>
+        <v>84665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.333272781092869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2765780443061072</v>
+        <v>0.2726955790339258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3927301597395634</v>
+        <v>0.3859034542550682</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>170</v>
@@ -9119,19 +9119,19 @@
         <v>155633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133683</v>
+        <v>135672</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178726</v>
+        <v>176769</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3065769429734476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2633390894181375</v>
+        <v>0.2672568659102896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.352068101514437</v>
+        <v>0.3482135376598979</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>122646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>104404</v>
+        <v>105047</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>143197</v>
+        <v>141384</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4254820010689168</v>
+        <v>0.4254820010689167</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3621992984298195</v>
+        <v>0.3644276729985482</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4967777468679783</v>
+        <v>0.4904903060284238</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>80</v>
@@ -9169,19 +9169,19 @@
         <v>64337</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>52137</v>
+        <v>52115</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76454</v>
+        <v>78570</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2932486662177225</v>
+        <v>0.2932486662177226</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.237639738017339</v>
+        <v>0.2375384438733822</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.348476931388274</v>
+        <v>0.358120006751516</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>190</v>
@@ -9190,19 +9190,19 @@
         <v>186983</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>164889</v>
+        <v>165552</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>211551</v>
+        <v>211320</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3683333196372856</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.324810182878588</v>
+        <v>0.3261178779725725</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.416728939621665</v>
+        <v>0.4162748701870145</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>39286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27328</v>
+        <v>27768</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54343</v>
+        <v>55160</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1362924677817018</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09480688422214015</v>
+        <v>0.09633267032352058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1885261134272531</v>
+        <v>0.1913611645232602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -9240,19 +9240,19 @@
         <v>38559</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28839</v>
+        <v>28959</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49058</v>
+        <v>49982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1757506271532249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1314483337798054</v>
+        <v>0.1319965126306357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2236048928142693</v>
+        <v>0.2278152669597175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -9261,19 +9261,19 @@
         <v>77845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59619</v>
+        <v>62645</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94524</v>
+        <v>98979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1533455186053787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1174419371891827</v>
+        <v>0.12340385737193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1861997566324146</v>
+        <v>0.1949761581013133</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>25853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15912</v>
+        <v>16907</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39619</v>
+        <v>39398</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1532010281354129</v>
+        <v>0.153201028135413</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09429624908475588</v>
+        <v>0.1001904340597582</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2347764944082659</v>
+        <v>0.2334718020055454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -9386,19 +9386,19 @@
         <v>16280</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10631</v>
+        <v>10338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23455</v>
+        <v>23705</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1080753213253295</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07057425121230365</v>
+        <v>0.06862739750062233</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1557050076860804</v>
+        <v>0.1573674293300539</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -9407,19 +9407,19 @@
         <v>42133</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30923</v>
+        <v>29975</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58532</v>
+        <v>59455</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1319176911916721</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09681848949225844</v>
+        <v>0.09385266954831753</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1832631231831278</v>
+        <v>0.1861545885158434</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>29700</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20351</v>
+        <v>20559</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40210</v>
+        <v>42044</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1760026478342616</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1206002324753071</v>
+        <v>0.1218329436212721</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2382816870920414</v>
+        <v>0.2491468901638697</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -9457,19 +9457,19 @@
         <v>37617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28912</v>
+        <v>28468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47122</v>
+        <v>47123</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2497205761483349</v>
+        <v>0.249720576148335</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1919292287591647</v>
+        <v>0.1889860890926111</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3128182768905758</v>
+        <v>0.3128242459470583</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -9478,19 +9478,19 @@
         <v>67318</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54417</v>
+        <v>54925</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83010</v>
+        <v>82253</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2107713776340211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1703794528095096</v>
+        <v>0.171971363824032</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2599042385393941</v>
+        <v>0.2575334198155844</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>56941</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42926</v>
+        <v>43906</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71878</v>
+        <v>72338</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.337426569261793</v>
+        <v>0.3374265692617931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2543768604458432</v>
+        <v>0.2601824394573959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4259434486257556</v>
+        <v>0.4286708531495813</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -9528,19 +9528,19 @@
         <v>55044</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45143</v>
+        <v>45766</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>66198</v>
+        <v>65032</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3654089638590819</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2996791488627156</v>
+        <v>0.3038142212406486</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4394526762185457</v>
+        <v>0.4317159049048647</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -9549,19 +9549,19 @@
         <v>111985</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>94721</v>
+        <v>95099</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>130689</v>
+        <v>129729</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3506243399961838</v>
+        <v>0.3506243399961837</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2965725035729543</v>
+        <v>0.2977539542873553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4091874363921336</v>
+        <v>0.4061803444804933</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>56256</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>43222</v>
+        <v>42784</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73497</v>
+        <v>72735</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3333697547685323</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2561301885022908</v>
+        <v>0.2535363467701997</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4355389298700276</v>
+        <v>0.4310230190604934</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>49</v>
@@ -9599,19 +9599,19 @@
         <v>41696</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32572</v>
+        <v>32175</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53059</v>
+        <v>52781</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2767951386672535</v>
+        <v>0.2767951386672536</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2162289059997156</v>
+        <v>0.2135938522328061</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3522292192127762</v>
+        <v>0.3503843901955448</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>89</v>
@@ -9620,19 +9620,19 @@
         <v>97952</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>78554</v>
+        <v>80613</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>116930</v>
+        <v>117871</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.306686591178123</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2459527904629168</v>
+        <v>0.2523983028937766</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.366106050596447</v>
+        <v>0.3690553439078</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>268689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>237389</v>
+        <v>238778</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>300360</v>
+        <v>299495</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2806580277848114</v>
+        <v>0.2806580277848115</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2479634361088806</v>
+        <v>0.2494141134001479</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3137393042907618</v>
+        <v>0.3128360905674791</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>256</v>
@@ -9745,19 +9745,19 @@
         <v>203354</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>184010</v>
+        <v>182440</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>228126</v>
+        <v>226470</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2893455710602811</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2618207661802178</v>
+        <v>0.2595875033027292</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3245924857956275</v>
+        <v>0.3222361894491649</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>476</v>
@@ -9766,19 +9766,19 @@
         <v>472044</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>434090</v>
+        <v>434778</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>512804</v>
+        <v>509806</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2843357827140606</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2614744725847706</v>
+        <v>0.2618890316566885</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3088877617759651</v>
+        <v>0.3070817407185163</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>245318</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>217976</v>
+        <v>216954</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>273760</v>
+        <v>274938</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2562458385594206</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2276855963961157</v>
+        <v>0.226618599178002</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2859550507621985</v>
+        <v>0.2871844904446864</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>294</v>
@@ -9816,19 +9816,19 @@
         <v>207065</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>186145</v>
+        <v>185799</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>228903</v>
+        <v>227343</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2946255786442004</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2648592764188022</v>
+        <v>0.2643672279797956</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.325697151389354</v>
+        <v>0.3234784200729674</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>515</v>
@@ -9837,19 +9837,19 @@
         <v>452383</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>418658</v>
+        <v>418760</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>493230</v>
+        <v>488600</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.272493386779256</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2521791308932011</v>
+        <v>0.2522401308530421</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2970971968807065</v>
+        <v>0.2943083442761717</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>287114</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>256858</v>
+        <v>256826</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>320283</v>
+        <v>319585</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.299903440185767</v>
+        <v>0.2999034401857669</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2683001355545374</v>
+        <v>0.2682657582407655</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.334549972542982</v>
+        <v>0.3338205170781552</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>236</v>
@@ -9887,19 +9887,19 @@
         <v>172488</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>152972</v>
+        <v>152247</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>195671</v>
+        <v>192232</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2454270607832362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2176576763585683</v>
+        <v>0.2166272193502554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2784128897429312</v>
+        <v>0.273519857784299</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>489</v>
@@ -9908,19 +9908,19 @@
         <v>459602</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>425602</v>
+        <v>424323</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>497111</v>
+        <v>496828</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2768415955972031</v>
+        <v>0.276841595597203</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2563617673290005</v>
+        <v>0.2555914431157799</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2994349465416741</v>
+        <v>0.2992643390176606</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>156233</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>129770</v>
+        <v>127897</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>187466</v>
+        <v>183219</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1631926934700011</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1355508389276659</v>
+        <v>0.1335938665930531</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1958170471342251</v>
+        <v>0.1913802048093777</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -9958,19 +9958,19 @@
         <v>119900</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>101083</v>
+        <v>101086</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>140319</v>
+        <v>141333</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1706017895122823</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1438276568808973</v>
+        <v>0.1438322463692474</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1996554985400101</v>
+        <v>0.2010976616857245</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>256</v>
@@ -9979,19 +9979,19 @@
         <v>276134</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>241936</v>
+        <v>246370</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>310417</v>
+        <v>310921</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1663292349094803</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1457301170204502</v>
+        <v>0.1484012900125864</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1869800824259084</v>
+        <v>0.1872833770954519</v>
       </c>
     </row>
     <row r="33">
